--- a/my_agent/Landing/CTRL0037345.xlsx
+++ b/my_agent/Landing/CTRL0037345.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gautam.Bhattacharya\OneDrive - EY\Desktop\control flow\astra zeneca latest\CTRL0037345_v3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UV172XK\code@ey\Agentic AI\pr-ordinary-cloth-67\Landing Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA6162B-9149-4D50-B217-53BE69155995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14918744-8BEF-4F3C-8315-AA6BF0C529FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1EB8B7C-E22C-4E54-BB69-28FC8EA3B416}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1EB8B7C-E22C-4E54-BB69-28FC8EA3B416}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,30 +148,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">In 37345_IPE2.jpg, check if the fields in the screenshot are filled correctly. The values in these fields should be as follows:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1) Cost Center: 9934
-2) Posting Date : 01.01.2024 to 31.03.2024 
-%
-Validate the input parameters for GL 23040100.
-%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -240,26 +216,6 @@
       <t xml:space="preserve">
 %
 Validate the completeness and accuracy of GL 23040100 extract from SAP.
-%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>In 37345_IPE1.jpg, check if the fields in the screenshot are filled correctly. The values in these fields should be as follows:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1) G/L Account: 23040100 
-2) Company Code: UK10
-3) Posting Date: 01.01.2024 to 31.03.2024
-%
-Validate the input parameters for GL 23040100.
 %</t>
     </r>
   </si>
@@ -587,12 +543,50 @@
 </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>In 37345_IPE1.jpg, check if the fields in the screenshot are filled correctly. You will find these values highlighted in RED color in the image, only focus on those. You need to only analyse the fields that are mentioned below above. The values in these fields should be as follows:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) G/L Account: 23040100 
+2) Company Code: UK10
+3) Posting Date: 01.01.2024 to 31.03.2024
+%
+Validate the input parameters for GL 23040100.
+%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In 37345_IPE2.jpg, check if the fields in the screenshot are filled correctly. You will find these values highlighted in RED color in the image, only focus on those. You need to only analyse the fields that are mentioned below. The values in these fields should be as follows:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1) Cost Center: 9934
+2) Posting Date : 01.01.2024 to 31.03.2024 
+%
+Validate the input parameters for GL 23040100.
+%</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -629,13 +623,6 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -760,25 +747,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1141,23 +1128,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0262C7-6BA8-46AB-B72D-B06AC8D7E1D4}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="58.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="39.1640625" customWidth="1"/>
-    <col min="12" max="12" width="39.6640625" customWidth="1"/>
-    <col min="13" max="13" width="61.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" customWidth="1"/>
+    <col min="12" max="12" width="39.7109375" customWidth="1"/>
+    <col min="13" max="13" width="61.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,22 +1176,22 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1236,19 +1223,19 @@
         <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>27</v>
+      <c r="O2" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1264,86 +1251,86 @@
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1352,37 +1339,37 @@
         <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="O2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/my_agent/Landing/CTRL0037345.xlsx
+++ b/my_agent/Landing/CTRL0037345.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UV172XK\code@ey\Agentic AI\pr-ordinary-cloth-67\Landing Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14918744-8BEF-4F3C-8315-AA6BF0C529FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4681BB8-E9D4-48C9-A93A-42A79CDA1CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1EB8B7C-E22C-4E54-BB69-28FC8EA3B416}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>control_number</t>
   </si>
@@ -144,33 +144,6 @@
     <t>Rachel</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>In 37345_IPE4.jpg, check if the fields in the screenshot are filled correctly. The values in these fields should be as follows:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-1) G/L Account: 23020100
-2) Company Code: UK10
-3) Posting Date: 01.01.2024 to 31.03.2024
-%
-Validate the input parameters for GL 23020100
-%</t>
-    </r>
-  </si>
-  <si>
     <t>IPE3 GL 23040100_totals</t>
   </si>
   <si>
@@ -178,20 +151,6 @@
   </si>
   <si>
     <t>IPE1 GL 23040100_1</t>
-  </si>
-  <si>
-    <t>IPE4 GL 23020100</t>
-  </si>
-  <si>
-    <t>IPE5 GL 23020100_totals</t>
-  </si>
-  <si>
-    <t>Compare 37345_IPE5.xlsx with  37345_IPE5.jpg. 
-1. retrieve the Sum of column "Amount in local currency" from the excel
-2. retrieve the total value of column 'Amount in local cur' present at the bottom yellow panel in the screenshot. 
-%
-Validate the completeness and accuracy of GL 23020100 extract from SAP.
-%</t>
   </si>
   <si>
     <r>
@@ -1126,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0262C7-6BA8-46AB-B72D-B06AC8D7E1D4}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1140,11 +1099,9 @@
     <col min="11" max="11" width="39.140625" customWidth="1"/>
     <col min="12" max="12" width="39.7109375" customWidth="1"/>
     <col min="13" max="13" width="61.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,22 +1133,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1223,19 +1174,13 @@
         <v>19</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1288,49 +1233,49 @@
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1339,37 +1284,37 @@
         <v>17</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="N2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="P2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="S2" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
